--- a/meta/15-2-1.xlsx
+++ b/meta/15-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">15.2 К 2020 году содействовать внедрению методов рационального использования всех типов лесов, остановить обезлесение, восстановить деградировавшие леса и значительно расширить масштабы лесонасаждения и лесовосстановления во всем мире </t>
   </si>
   <si>
-    <t>15.2.1. Процесс в переходе на не истощительное ведение лесного хозяйства</t>
-  </si>
-  <si>
     <t>ГАООСЛХ, Департамент развития лесных экосистем, Госучреждение “Кыргызлесоохотоустройство”</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>15.2.1 Процесс в переходе на не истощительное ведение лесного хозяйства</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
